--- a/relatorios/2025/07/2025-07-01.xlsx
+++ b/relatorios/2025/07/2025-07-01.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="117">
   <si>
     <t>FILTRO</t>
   </si>
@@ -117,184 +117,253 @@
     <t>Todos</t>
   </si>
   <si>
+    <t>Tatiani Capitani De Jesus</t>
+  </si>
+  <si>
+    <t>Denise Lemes Martins</t>
+  </si>
+  <si>
+    <t>Ana Paula Maria Da Silva Figueiredo</t>
+  </si>
+  <si>
+    <t>Gislayne Oliveira Santos</t>
+  </si>
+  <si>
+    <t>Joao Vitor Lima Correa</t>
+  </si>
+  <si>
     <t>Kaline Alice Da Silva</t>
   </si>
   <si>
+    <t>Dalva Beatriz Malhado Ferraz</t>
+  </si>
+  <si>
+    <t>Bianca Karoline Angelo Da Silva</t>
+  </si>
+  <si>
+    <t>Crislayne Keuly Martins Do Nascimento</t>
+  </si>
+  <si>
+    <t>Mykaelly Regina Souza De Carvalho</t>
+  </si>
+  <si>
+    <t>Nyandra Victória De Oliveira Lopes</t>
+  </si>
+  <si>
+    <t>Mariah Camila Valencia Toscano</t>
+  </si>
+  <si>
+    <t>Leticia Pereira Ribeiro</t>
+  </si>
+  <si>
+    <t>Sidneia Aparecida De Souza Rodrigues</t>
+  </si>
+  <si>
     <t>Raiana Aparecida De Arruda</t>
   </si>
   <si>
+    <t>Julia Rodrigues Amaral</t>
+  </si>
+  <si>
+    <t>Adrielle Alves Da Silva</t>
+  </si>
+  <si>
+    <t>Ludmilla Lemes Da Silva</t>
+  </si>
+  <si>
+    <t>Ana Vitoria Lara Pereira</t>
+  </si>
+  <si>
+    <t>Raquel Aparecida De Almeida Novaes</t>
+  </si>
+  <si>
+    <t>Maria Antonia Pinto Da Silva</t>
+  </si>
+  <si>
+    <t>Marialice Souza Lima</t>
+  </si>
+  <si>
+    <t>Christian Wesley De Sousa Resende</t>
+  </si>
+  <si>
+    <t>Edineia Fatima Da Silva</t>
+  </si>
+  <si>
+    <t>Diogo Martins Guedes</t>
+  </si>
+  <si>
+    <t>Eudirza Regina Da Silva Moraes</t>
+  </si>
+  <si>
+    <t>Luana Cleia De Almeida</t>
+  </si>
+  <si>
+    <t>Mara Alves Saldanha</t>
+  </si>
+  <si>
+    <t>Guilherme Borges De Souza</t>
+  </si>
+  <si>
+    <t>Bruna Regina De Paula</t>
+  </si>
+  <si>
+    <t>9009 -</t>
+  </si>
+  <si>
+    <t>Graciele De Jesus Sousa</t>
+  </si>
+  <si>
+    <t>Ketlley Carolyne Dos Santos Cintra</t>
+  </si>
+  <si>
+    <t>Gilsara Plens Correa</t>
+  </si>
+  <si>
+    <t>Dhara Cristina Pedrosa Oliveiira</t>
+  </si>
+  <si>
+    <t>Julio Matheus De Oliveira Ferreira</t>
+  </si>
+  <si>
+    <t>Wanessa Beatriz Pereira De Araujo</t>
+  </si>
+  <si>
+    <t>14590 -</t>
+  </si>
+  <si>
+    <t>Gianine Da Silva Cruz</t>
+  </si>
+  <si>
+    <t>Raynara Aparecida Paes Fonseca</t>
+  </si>
+  <si>
+    <t>Lorrayne Farias Mamora</t>
+  </si>
+  <si>
+    <t>Vanessa Santos Da Silva</t>
+  </si>
+  <si>
+    <t>Andrezza Daiziele Silva Lourenco Dos Santos</t>
+  </si>
+  <si>
+    <t>Franciele Marques Da Silva</t>
+  </si>
+  <si>
+    <t>Caroline Cruz De Arruda Oliveira</t>
+  </si>
+  <si>
+    <t>Juliana Carolina Da Silva</t>
+  </si>
+  <si>
+    <t>Karolayne Aparecida Rodrigues Da Silva</t>
+  </si>
+  <si>
+    <t>Ana Karolliny Alcantara De Oliveira</t>
+  </si>
+  <si>
+    <t>Alvina De Oliveira Alves Santos</t>
+  </si>
+  <si>
+    <t>Tabinny Sumaya Silva Gomes</t>
+  </si>
+  <si>
+    <t>Laura Auxiliadora Oliveira Souza</t>
+  </si>
+  <si>
+    <t>Anna Clara Correa De Carvalho Borges</t>
+  </si>
+  <si>
+    <t>Ayla Rafaelly Dos Santos Magalhaes Barros</t>
+  </si>
+  <si>
+    <t>Ildiane De Sousa Ribeiro</t>
+  </si>
+  <si>
+    <t>Bruna Oliveira De Souza</t>
+  </si>
+  <si>
+    <t>Marceli Ramalho Da Silva</t>
+  </si>
+  <si>
+    <t>Anna Julia Da Silva Pinto</t>
+  </si>
+  <si>
+    <t>Priscila Silva Moreira</t>
+  </si>
+  <si>
+    <t>Glaucisney Sena Barboza</t>
+  </si>
+  <si>
+    <t>Paolla Amaral Santos</t>
+  </si>
+  <si>
+    <t>Evania Magalhaes Da Silva</t>
+  </si>
+  <si>
+    <t>Luiza Vitoria Leite Brito</t>
+  </si>
+  <si>
+    <t>Jacqueline Paula Da Cruz Santana</t>
+  </si>
+  <si>
+    <t>Eduardo Karin Jabra De Abreu</t>
+  </si>
+  <si>
+    <t>Rhadja Vitoria Cruz Ahmad</t>
+  </si>
+  <si>
+    <t>Talita Rodrigues Santiago</t>
+  </si>
+  <si>
+    <t>Martha Chrystianne Fernandes De Morais</t>
+  </si>
+  <si>
+    <t>Raira Da Silva E Souza</t>
+  </si>
+  <si>
+    <t>Maelison Alves De Oliveira</t>
+  </si>
+  <si>
+    <t>4590 -</t>
+  </si>
+  <si>
+    <t>Maica Rejane Nogueira Da Silva</t>
+  </si>
+  <si>
     <t>Flavia Camila Pereira Borges Da Silva</t>
   </si>
   <si>
-    <t>Adrielle Alves Da Silva</t>
-  </si>
-  <si>
-    <t>Eduardo Karin Jabra De Abreu</t>
-  </si>
-  <si>
-    <t>Martha Chrystianne Fernandes De Morais</t>
-  </si>
-  <si>
-    <t>Julio Matheus De Oliveira Ferreira</t>
-  </si>
-  <si>
-    <t>Julia Rodrigues Amaral</t>
-  </si>
-  <si>
-    <t>Mykaelly Regina Souza De Carvalho</t>
-  </si>
-  <si>
-    <t>Graciele De Jesus Sousa</t>
-  </si>
-  <si>
-    <t>Eudirza Regina Da Silva Moraes</t>
-  </si>
-  <si>
-    <t>4590 -</t>
-  </si>
-  <si>
-    <t>Dalva Beatriz Malhado Ferraz</t>
+    <t>Justo Rafael Amundaray Correa</t>
+  </si>
+  <si>
+    <t>Allanda Thawane Bomdespacho Da Silva Amorim</t>
+  </si>
+  <si>
+    <t>Yorrana Pereira Do Amaral Santana</t>
+  </si>
+  <si>
+    <t>Jose Alejandro Ortiz Romero</t>
+  </si>
+  <si>
+    <t>Matheus Willian Bispo Pereira</t>
+  </si>
+  <si>
+    <t>Giovanna Ferreira Gualberto</t>
+  </si>
+  <si>
+    <t>Milena Santana De Sousa</t>
+  </si>
+  <si>
+    <t>Izadora Colognesi Machado</t>
   </si>
   <si>
     <t>Kamila Vitoria Soares Da Silva</t>
   </si>
   <si>
-    <t>Maica Rejane Nogueira Da Silva</t>
-  </si>
-  <si>
-    <t>Milena Santana De Sousa</t>
-  </si>
-  <si>
-    <t>14590 -</t>
-  </si>
-  <si>
-    <t>Luana Cleia De Almeida</t>
-  </si>
-  <si>
-    <t>Juliana Carolina Da Silva</t>
-  </si>
-  <si>
-    <t>Ana Vitoria Lara Pereira</t>
-  </si>
-  <si>
-    <t>Franciele Marques Da Silva</t>
-  </si>
-  <si>
-    <t>Vanessa Santos Da Silva</t>
-  </si>
-  <si>
-    <t>Glaucisney Sena Barboza</t>
-  </si>
-  <si>
-    <t>Marceli Ramalho Da Silva</t>
-  </si>
-  <si>
-    <t>Andrezza Daiziele Silva Lourenco Dos Santos</t>
-  </si>
-  <si>
-    <t>Christian Wesley De Sousa Resende</t>
-  </si>
-  <si>
-    <t>Bianca Karoline Angelo Da Silva</t>
-  </si>
-  <si>
-    <t>Priscila Silva Moreira</t>
-  </si>
-  <si>
-    <t>Matheus Willian Bispo Pereira</t>
-  </si>
-  <si>
-    <t>Anna Julia Da Silva Pinto</t>
-  </si>
-  <si>
-    <t>Dhara Cristina Pedrosa Oliveiira</t>
-  </si>
-  <si>
-    <t>Tatiani Capitani De Jesus</t>
-  </si>
-  <si>
-    <t>Rhadja Vitoria Cruz Ahmad</t>
-  </si>
-  <si>
-    <t>Laura Auxiliadora Oliveira Souza</t>
-  </si>
-  <si>
-    <t>Gilsara Plens Correa</t>
-  </si>
-  <si>
-    <t>Mara Alves Saldanha</t>
-  </si>
-  <si>
-    <t>Wanessa Beatriz Pereira De Araujo</t>
-  </si>
-  <si>
-    <t>Karolayne Aparecida Rodrigues Da Silva</t>
-  </si>
-  <si>
-    <t>Sidneia Aparecida De Souza Rodrigues</t>
-  </si>
-  <si>
-    <t>Bruna Oliveira De Souza</t>
-  </si>
-  <si>
-    <t>Denise Lemes Martins</t>
-  </si>
-  <si>
-    <t>Edineia Fatima Da Silva</t>
-  </si>
-  <si>
-    <t>Maelison Alves De Oliveira</t>
-  </si>
-  <si>
-    <t>Raynara Aparecida Paes Fonseca</t>
+    <t>Monica Cristina Miranda Dos Santos</t>
   </si>
   <si>
     <t>Marcela Antunes De Almeida</t>
-  </si>
-  <si>
-    <t>Anna Clara Correa De Carvalho Borges</t>
-  </si>
-  <si>
-    <t>Giovanna Ferreira Gualberto</t>
-  </si>
-  <si>
-    <t>Marialice Souza Lima</t>
-  </si>
-  <si>
-    <t>Yorrana Pereira Do Amaral Santana</t>
-  </si>
-  <si>
-    <t>Joao Vitor Lima Correa</t>
-  </si>
-  <si>
-    <t>Ketlley Carolyne Dos Santos Cintra</t>
-  </si>
-  <si>
-    <t>Crislayne Keuly Martins Do Nascimento</t>
-  </si>
-  <si>
-    <t>Izadora Colognesi Machado</t>
-  </si>
-  <si>
-    <t>Allanda Thawane Bomdespacho Da Silva Amorim</t>
-  </si>
-  <si>
-    <t>Alvina De Oliveira Alves Santos</t>
-  </si>
-  <si>
-    <t>Raquel Aparecida De Almeida Novaes</t>
-  </si>
-  <si>
-    <t>Paolla Amaral Santos</t>
-  </si>
-  <si>
-    <t>Monica Cristina Miranda Dos Santos</t>
-  </si>
-  <si>
-    <t>Ildiane De Sousa Ribeiro</t>
-  </si>
-  <si>
-    <t>Raira Da Silva E Souza</t>
   </si>
 </sst>
 </file>
@@ -952,10 +1021,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="6">
-        <v>34423.68</v>
+        <v>62630.79</v>
       </c>
       <c r="C3" s="6">
-        <v>34423.68</v>
+        <v>62630.79</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>29</v>
@@ -970,10 +1039,10 @@
         <v>29</v>
       </c>
       <c r="H3" s="6">
-        <v>150.321746725</v>
+        <v>152.75802439</v>
       </c>
       <c r="I3" s="6">
-        <v>150.321746725</v>
+        <v>152.75802439</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>29</v>
@@ -988,37 +1057,37 @@
         <v>29</v>
       </c>
       <c r="N3" s="6">
-        <v>2.7161572052401746</v>
+        <v>2.7804878048780486</v>
       </c>
       <c r="O3" s="6">
-        <v>2.7161572052401746</v>
+        <v>2.7804878048780486</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="Q3" s="8">
-        <v>229</v>
+        <v>410</v>
       </c>
       <c r="R3" s="8">
-        <v>229</v>
+        <v>410</v>
       </c>
       <c r="S3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="T3" s="6">
-        <v>55.343536977</v>
+        <v>54.939289474</v>
       </c>
       <c r="U3" s="6">
-        <v>55.343536977</v>
+        <v>54.939289474</v>
       </c>
       <c r="V3" s="7" t="s">
         <v>29</v>
       </c>
       <c r="W3" s="8">
-        <v>622</v>
+        <v>1140</v>
       </c>
       <c r="X3" s="8">
-        <v>622</v>
+        <v>1140</v>
       </c>
       <c r="Y3" s="7" t="s">
         <v>29</v>
@@ -1026,13 +1095,13 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>20138</v>
+        <v>14590</v>
       </c>
       <c r="B4" s="3">
-        <v>878.05</v>
+        <v>2803.34</v>
       </c>
       <c r="C4" s="3">
-        <v>878.05</v>
+        <v>2803.34</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>29</v>
@@ -1047,10 +1116,10 @@
         <v>29</v>
       </c>
       <c r="H4" s="3">
-        <v>146.341666667</v>
+        <v>186.889333333</v>
       </c>
       <c r="I4" s="3">
-        <v>146.341666667</v>
+        <v>186.889333333</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>29</v>
@@ -1065,37 +1134,37 @@
         <v>29</v>
       </c>
       <c r="N4" s="3">
-        <v>2.3333333333333335</v>
+        <v>3.2666666666666666</v>
       </c>
       <c r="O4" s="3">
-        <v>2.3333333333333335</v>
+        <v>3.2666666666666666</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q4" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="R4" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T4" s="3">
-        <v>62.717857143</v>
+        <v>57.211020408</v>
       </c>
       <c r="U4" s="3">
-        <v>62.717857143</v>
+        <v>57.211020408</v>
       </c>
       <c r="V4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W4" s="5">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="X4" s="5">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="Y4" s="4" t="s">
         <v>29</v>
@@ -1103,13 +1172,13 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>9009</v>
+        <v>4590</v>
       </c>
       <c r="B5" s="3">
-        <v>2154.57</v>
+        <v>9355.64</v>
       </c>
       <c r="C5" s="3">
-        <v>2154.57</v>
+        <v>9355.64</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
@@ -1124,10 +1193,10 @@
         <v>29</v>
       </c>
       <c r="H5" s="3">
-        <v>165.736153846</v>
+        <v>179.916153846</v>
       </c>
       <c r="I5" s="3">
-        <v>165.736153846</v>
+        <v>179.916153846</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>29</v>
@@ -1142,37 +1211,37 @@
         <v>29</v>
       </c>
       <c r="N5" s="3">
-        <v>2.230769230769231</v>
+        <v>3</v>
       </c>
       <c r="O5" s="3">
-        <v>2.230769230769231</v>
+        <v>3</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q5" s="5">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="R5" s="5">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T5" s="3">
-        <v>74.295517241</v>
+        <v>59.972051282</v>
       </c>
       <c r="U5" s="3">
-        <v>74.295517241</v>
+        <v>59.972051282</v>
       </c>
       <c r="V5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W5" s="5">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="X5" s="5">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="Y5" s="4" t="s">
         <v>29</v>
@@ -1180,13 +1249,13 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4591</v>
+        <v>22595</v>
       </c>
       <c r="B6" s="3">
-        <v>1529.27</v>
+        <v>1008.54</v>
       </c>
       <c r="C6" s="3">
-        <v>1529.27</v>
+        <v>1008.54</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>29</v>
@@ -1201,10 +1270,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="3">
-        <v>169.918888889</v>
+        <v>112.06</v>
       </c>
       <c r="I6" s="3">
-        <v>169.918888889</v>
+        <v>112.06</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>29</v>
@@ -1219,10 +1288,10 @@
         <v>29</v>
       </c>
       <c r="N6" s="3">
-        <v>3.111111111111111</v>
+        <v>2.4444444444444446</v>
       </c>
       <c r="O6" s="3">
-        <v>3.111111111111111</v>
+        <v>2.4444444444444446</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>29</v>
@@ -1237,19 +1306,19 @@
         <v>29</v>
       </c>
       <c r="T6" s="3">
-        <v>54.616785714</v>
+        <v>45.842727273</v>
       </c>
       <c r="U6" s="3">
-        <v>54.616785714</v>
+        <v>45.842727273</v>
       </c>
       <c r="V6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W6" s="5">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="X6" s="5">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>29</v>
@@ -1257,13 +1326,13 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>18464</v>
+        <v>6777</v>
       </c>
       <c r="B7" s="3">
-        <v>1995.2</v>
+        <v>2060.25</v>
       </c>
       <c r="C7" s="3">
-        <v>1995.2</v>
+        <v>2060.25</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>29</v>
@@ -1278,10 +1347,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="3">
-        <v>199.52</v>
+        <v>137.35</v>
       </c>
       <c r="I7" s="3">
-        <v>199.52</v>
+        <v>137.35</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>29</v>
@@ -1296,37 +1365,37 @@
         <v>29</v>
       </c>
       <c r="N7" s="3">
-        <v>2.5</v>
+        <v>3.2666666666666666</v>
       </c>
       <c r="O7" s="3">
-        <v>2.5</v>
+        <v>3.2666666666666666</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q7" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="R7" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T7" s="3">
-        <v>79.808</v>
+        <v>42.045918367</v>
       </c>
       <c r="U7" s="3">
-        <v>79.808</v>
+        <v>42.045918367</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W7" s="5">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="X7" s="5">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>29</v>
@@ -1334,13 +1403,13 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>12808</v>
+        <v>14502</v>
       </c>
       <c r="B8" s="3">
-        <v>2684.9</v>
+        <v>1057.17</v>
       </c>
       <c r="C8" s="3">
-        <v>2684.9</v>
+        <v>1057.17</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>29</v>
@@ -1355,10 +1424,10 @@
         <v>29</v>
       </c>
       <c r="H8" s="3">
-        <v>206.530769231</v>
+        <v>81.320769231</v>
       </c>
       <c r="I8" s="3">
-        <v>206.530769231</v>
+        <v>81.320769231</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>29</v>
@@ -1373,10 +1442,10 @@
         <v>29</v>
       </c>
       <c r="N8" s="3">
-        <v>3.6153846153846154</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="O8" s="3">
-        <v>3.6153846153846154</v>
+        <v>1.8461538461538463</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>29</v>
@@ -1391,19 +1460,19 @@
         <v>29</v>
       </c>
       <c r="T8" s="3">
-        <v>57.125531915</v>
+        <v>44.04875</v>
       </c>
       <c r="U8" s="3">
-        <v>57.125531915</v>
+        <v>44.04875</v>
       </c>
       <c r="V8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W8" s="5">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="X8" s="5">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>29</v>
@@ -1411,13 +1480,13 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>6777</v>
+        <v>4146</v>
       </c>
       <c r="B9" s="3">
-        <v>1275.78</v>
+        <v>3563.13</v>
       </c>
       <c r="C9" s="3">
-        <v>1275.78</v>
+        <v>3563.13</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>29</v>
@@ -1432,10 +1501,10 @@
         <v>29</v>
       </c>
       <c r="H9" s="3">
-        <v>141.753333333</v>
+        <v>169.672857143</v>
       </c>
       <c r="I9" s="3">
-        <v>141.753333333</v>
+        <v>169.672857143</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>29</v>
@@ -1450,37 +1519,37 @@
         <v>29</v>
       </c>
       <c r="N9" s="3">
-        <v>2.7777777777777777</v>
+        <v>2.619047619047619</v>
       </c>
       <c r="O9" s="3">
-        <v>2.7777777777777777</v>
+        <v>2.619047619047619</v>
       </c>
       <c r="P9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q9" s="5">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="R9" s="5">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T9" s="3">
-        <v>51.0312</v>
+        <v>64.784181818</v>
       </c>
       <c r="U9" s="3">
-        <v>51.0312</v>
+        <v>64.784181818</v>
       </c>
       <c r="V9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W9" s="5">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="X9" s="5">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="Y9" s="4" t="s">
         <v>29</v>
@@ -1488,13 +1557,13 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>14502</v>
+        <v>4591</v>
       </c>
       <c r="B10" s="3">
-        <v>530.37</v>
+        <v>2326.26</v>
       </c>
       <c r="C10" s="3">
-        <v>530.37</v>
+        <v>2326.26</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>29</v>
@@ -1509,10 +1578,10 @@
         <v>29</v>
       </c>
       <c r="H10" s="3">
-        <v>88.395</v>
+        <v>166.161428571</v>
       </c>
       <c r="I10" s="3">
-        <v>88.395</v>
+        <v>166.161428571</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>29</v>
@@ -1527,37 +1596,37 @@
         <v>29</v>
       </c>
       <c r="N10" s="3">
-        <v>2.6666666666666665</v>
+        <v>3.2142857142857144</v>
       </c>
       <c r="O10" s="3">
-        <v>2.6666666666666665</v>
+        <v>3.2142857142857144</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q10" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="R10" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T10" s="3">
-        <v>33.148125</v>
+        <v>51.694666667</v>
       </c>
       <c r="U10" s="3">
-        <v>33.148125</v>
+        <v>51.694666667</v>
       </c>
       <c r="V10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W10" s="5">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="X10" s="5">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="Y10" s="4" t="s">
         <v>29</v>
@@ -1565,13 +1634,13 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>12816</v>
+        <v>12550</v>
       </c>
       <c r="B11" s="3">
-        <v>657.16</v>
+        <v>1941.4</v>
       </c>
       <c r="C11" s="3">
-        <v>657.16</v>
+        <v>1941.4</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>29</v>
@@ -1586,10 +1655,10 @@
         <v>29</v>
       </c>
       <c r="H11" s="3">
-        <v>164.29</v>
+        <v>215.711111111</v>
       </c>
       <c r="I11" s="3">
-        <v>164.29</v>
+        <v>215.711111111</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>29</v>
@@ -1604,37 +1673,37 @@
         <v>29</v>
       </c>
       <c r="N11" s="3">
-        <v>2</v>
+        <v>3.5555555555555554</v>
       </c>
       <c r="O11" s="3">
-        <v>2</v>
+        <v>3.5555555555555554</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q11" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R11" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T11" s="3">
-        <v>82.145</v>
+        <v>60.66875</v>
       </c>
       <c r="U11" s="3">
-        <v>82.145</v>
+        <v>60.66875</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W11" s="5">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="X11" s="5">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Y11" s="4" t="s">
         <v>29</v>
@@ -1642,13 +1711,13 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>911760</v>
+        <v>12816</v>
       </c>
       <c r="B12" s="3">
-        <v>384.8</v>
+        <v>1708.39</v>
       </c>
       <c r="C12" s="3">
-        <v>384.8</v>
+        <v>1708.39</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>29</v>
@@ -1663,10 +1732,10 @@
         <v>29</v>
       </c>
       <c r="H12" s="3">
-        <v>64.133333333</v>
+        <v>170.839</v>
       </c>
       <c r="I12" s="3">
-        <v>64.133333333</v>
+        <v>170.839</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>29</v>
@@ -1681,37 +1750,37 @@
         <v>29</v>
       </c>
       <c r="N12" s="3">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O12" s="3">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q12" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R12" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T12" s="3">
-        <v>42.755555556</v>
+        <v>63.273703704</v>
       </c>
       <c r="U12" s="3">
-        <v>42.755555556</v>
+        <v>63.273703704</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W12" s="5">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="X12" s="5">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="Y12" s="4" t="s">
         <v>29</v>
@@ -1719,13 +1788,13 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12550</v>
+        <v>911760</v>
       </c>
       <c r="B13" s="3">
-        <v>1152.35</v>
+        <v>2288.84</v>
       </c>
       <c r="C13" s="3">
-        <v>1152.35</v>
+        <v>2288.84</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>29</v>
@@ -1740,10 +1809,10 @@
         <v>29</v>
       </c>
       <c r="H13" s="3">
-        <v>164.621428571</v>
+        <v>108.992380952</v>
       </c>
       <c r="I13" s="3">
-        <v>164.621428571</v>
+        <v>108.992380952</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>29</v>
@@ -1758,37 +1827,37 @@
         <v>29</v>
       </c>
       <c r="N13" s="3">
-        <v>3.2857142857142856</v>
+        <v>2.5238095238095237</v>
       </c>
       <c r="O13" s="3">
-        <v>3.2857142857142856</v>
+        <v>2.5238095238095237</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q13" s="5">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="R13" s="5">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T13" s="3">
-        <v>50.102173913</v>
+        <v>43.185660377</v>
       </c>
       <c r="U13" s="3">
-        <v>50.102173913</v>
+        <v>43.185660377</v>
       </c>
       <c r="V13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W13" s="5">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="X13" s="5">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="Y13" s="4" t="s">
         <v>29</v>
@@ -1796,13 +1865,13 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>7164</v>
+        <v>7448</v>
       </c>
       <c r="B14" s="3">
-        <v>1616.6</v>
+        <v>1905.56</v>
       </c>
       <c r="C14" s="3">
-        <v>1616.6</v>
+        <v>1905.56</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>29</v>
@@ -1817,10 +1886,10 @@
         <v>29</v>
       </c>
       <c r="H14" s="3">
-        <v>161.66</v>
+        <v>105.864444444</v>
       </c>
       <c r="I14" s="3">
-        <v>161.66</v>
+        <v>105.864444444</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>29</v>
@@ -1835,37 +1904,37 @@
         <v>29</v>
       </c>
       <c r="N14" s="3">
-        <v>3.4</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="O14" s="3">
-        <v>3.4</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q14" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R14" s="5">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="S14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T14" s="3">
-        <v>47.547058824</v>
+        <v>45.37047619</v>
       </c>
       <c r="U14" s="3">
-        <v>47.547058824</v>
+        <v>45.37047619</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W14" s="5">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="X14" s="5">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Y14" s="4" t="s">
         <v>29</v>
@@ -1873,13 +1942,13 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7448</v>
+        <v>20138</v>
       </c>
       <c r="B15" s="3">
-        <v>1192.94</v>
+        <v>1628.43</v>
       </c>
       <c r="C15" s="3">
-        <v>1192.94</v>
+        <v>1628.43</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>29</v>
@@ -1894,10 +1963,10 @@
         <v>29</v>
       </c>
       <c r="H15" s="3">
-        <v>99.411666667</v>
+        <v>162.843</v>
       </c>
       <c r="I15" s="3">
-        <v>99.411666667</v>
+        <v>162.843</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>29</v>
@@ -1912,37 +1981,37 @@
         <v>29</v>
       </c>
       <c r="N15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q15" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R15" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T15" s="3">
-        <v>49.705833333</v>
+        <v>54.281</v>
       </c>
       <c r="U15" s="3">
-        <v>49.705833333</v>
+        <v>54.281</v>
       </c>
       <c r="V15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W15" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X15" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Y15" s="4" t="s">
         <v>29</v>
@@ -1950,13 +2019,13 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>13898</v>
+        <v>18464</v>
       </c>
       <c r="B16" s="3">
-        <v>300.55</v>
+        <v>2471.86</v>
       </c>
       <c r="C16" s="3">
-        <v>300.55</v>
+        <v>2471.86</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>29</v>
@@ -1971,10 +2040,10 @@
         <v>29</v>
       </c>
       <c r="H16" s="3">
-        <v>75.1375</v>
+        <v>164.790666667</v>
       </c>
       <c r="I16" s="3">
-        <v>75.1375</v>
+        <v>164.790666667</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>29</v>
@@ -1989,37 +2058,37 @@
         <v>29</v>
       </c>
       <c r="N16" s="3">
-        <v>2.5</v>
+        <v>2.533333333333333</v>
       </c>
       <c r="O16" s="3">
-        <v>2.5</v>
+        <v>2.533333333333333</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q16" s="5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R16" s="5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="S16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T16" s="3">
-        <v>30.055</v>
+        <v>65.048947368</v>
       </c>
       <c r="U16" s="3">
-        <v>30.055</v>
+        <v>65.048947368</v>
       </c>
       <c r="V16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W16" s="5">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="X16" s="5">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="Y16" s="4" t="s">
         <v>29</v>
@@ -2027,13 +2096,13 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>4146</v>
+        <v>4145</v>
       </c>
       <c r="B17" s="3">
-        <v>2256.91</v>
+        <v>3852.3</v>
       </c>
       <c r="C17" s="3">
-        <v>2256.91</v>
+        <v>3852.3</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>29</v>
@@ -2048,10 +2117,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="3">
-        <v>150.460666667</v>
+        <v>154.092</v>
       </c>
       <c r="I17" s="3">
-        <v>150.460666667</v>
+        <v>154.092</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>29</v>
@@ -2066,37 +2135,37 @@
         <v>29</v>
       </c>
       <c r="N17" s="3">
-        <v>2.466666666666667</v>
+        <v>2.72</v>
       </c>
       <c r="O17" s="3">
-        <v>2.466666666666667</v>
+        <v>2.72</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q17" s="5">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="R17" s="5">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="S17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T17" s="3">
-        <v>60.997567568</v>
+        <v>56.651470588</v>
       </c>
       <c r="U17" s="3">
-        <v>60.997567568</v>
+        <v>56.651470588</v>
       </c>
       <c r="V17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W17" s="5">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="X17" s="5">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="Y17" s="4" t="s">
         <v>29</v>
@@ -2104,13 +2173,13 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>4145</v>
+        <v>19832</v>
       </c>
       <c r="B18" s="3">
-        <v>2605.15</v>
+        <v>5718.6</v>
       </c>
       <c r="C18" s="3">
-        <v>2605.15</v>
+        <v>5718.6</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>29</v>
@@ -2125,10 +2194,10 @@
         <v>29</v>
       </c>
       <c r="H18" s="3">
-        <v>200.396153846</v>
+        <v>178.70625</v>
       </c>
       <c r="I18" s="3">
-        <v>200.396153846</v>
+        <v>178.70625</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>29</v>
@@ -2143,37 +2212,37 @@
         <v>29</v>
       </c>
       <c r="N18" s="3">
-        <v>3.230769230769231</v>
+        <v>3.125</v>
       </c>
       <c r="O18" s="3">
-        <v>3.230769230769231</v>
+        <v>3.125</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q18" s="5">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="R18" s="5">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="S18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T18" s="3">
-        <v>62.027380952</v>
+        <v>57.186</v>
       </c>
       <c r="U18" s="3">
-        <v>62.027380952</v>
+        <v>57.186</v>
       </c>
       <c r="V18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W18" s="5">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="X18" s="5">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="Y18" s="4" t="s">
         <v>29</v>
@@ -2181,13 +2250,13 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>19832</v>
+        <v>7164</v>
       </c>
       <c r="B19" s="3">
-        <v>2033.71</v>
+        <v>2342.54</v>
       </c>
       <c r="C19" s="3">
-        <v>2033.71</v>
+        <v>2342.54</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>29</v>
@@ -2202,10 +2271,10 @@
         <v>29</v>
       </c>
       <c r="H19" s="3">
-        <v>169.475833333</v>
+        <v>137.796470588</v>
       </c>
       <c r="I19" s="3">
-        <v>169.475833333</v>
+        <v>137.796470588</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>29</v>
@@ -2220,37 +2289,37 @@
         <v>29</v>
       </c>
       <c r="N19" s="3">
-        <v>2.5</v>
+        <v>3.0588235294117645</v>
       </c>
       <c r="O19" s="3">
-        <v>2.5</v>
+        <v>3.0588235294117645</v>
       </c>
       <c r="P19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q19" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="R19" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="S19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T19" s="3">
-        <v>67.790333333</v>
+        <v>45.048846154</v>
       </c>
       <c r="U19" s="3">
-        <v>67.790333333</v>
+        <v>45.048846154</v>
       </c>
       <c r="V19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W19" s="5">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="X19" s="5">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="Y19" s="4" t="s">
         <v>29</v>
@@ -2258,13 +2327,13 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>6417</v>
+        <v>9009</v>
       </c>
       <c r="B20" s="3">
-        <v>669.54</v>
+        <v>5541.72</v>
       </c>
       <c r="C20" s="3">
-        <v>669.54</v>
+        <v>5541.72</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>29</v>
@@ -2279,10 +2348,10 @@
         <v>29</v>
       </c>
       <c r="H20" s="3">
-        <v>95.648571429</v>
+        <v>167.930909091</v>
       </c>
       <c r="I20" s="3">
-        <v>95.648571429</v>
+        <v>167.930909091</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>29</v>
@@ -2297,37 +2366,37 @@
         <v>29</v>
       </c>
       <c r="N20" s="3">
-        <v>2.142857142857143</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="O20" s="3">
-        <v>2.142857142857143</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q20" s="5">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="R20" s="5">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="S20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T20" s="3">
-        <v>44.636</v>
+        <v>71.97038961</v>
       </c>
       <c r="U20" s="3">
-        <v>44.636</v>
+        <v>71.97038961</v>
       </c>
       <c r="V20" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W20" s="5">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="X20" s="5">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="Y20" s="4" t="s">
         <v>29</v>
@@ -2335,13 +2404,13 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>14586</v>
+        <v>6417</v>
       </c>
       <c r="B21" s="3">
-        <v>3173.92</v>
+        <v>1832.51</v>
       </c>
       <c r="C21" s="3">
-        <v>3173.92</v>
+        <v>1832.51</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>29</v>
@@ -2356,10 +2425,10 @@
         <v>29</v>
       </c>
       <c r="H21" s="3">
-        <v>117.552592593</v>
+        <v>114.531875</v>
       </c>
       <c r="I21" s="3">
-        <v>117.552592593</v>
+        <v>114.531875</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>29</v>
@@ -2374,37 +2443,37 @@
         <v>29</v>
       </c>
       <c r="N21" s="3">
-        <v>2.740740740740741</v>
+        <v>1.875</v>
       </c>
       <c r="O21" s="3">
-        <v>2.740740740740741</v>
+        <v>1.875</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q21" s="5">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="R21" s="5">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="S21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T21" s="3">
-        <v>42.890810811</v>
+        <v>61.083666667</v>
       </c>
       <c r="U21" s="3">
-        <v>42.890810811</v>
+        <v>61.083666667</v>
       </c>
       <c r="V21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W21" s="5">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="X21" s="5">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="Y21" s="4" t="s">
         <v>29</v>
@@ -2412,13 +2481,13 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>14590</v>
+        <v>14586</v>
       </c>
       <c r="B22" s="3">
-        <v>1093.03</v>
+        <v>4149.24</v>
       </c>
       <c r="C22" s="3">
-        <v>1093.03</v>
+        <v>4149.24</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>29</v>
@@ -2433,10 +2502,10 @@
         <v>29</v>
       </c>
       <c r="H22" s="3">
-        <v>121.447777778</v>
+        <v>118.549714286</v>
       </c>
       <c r="I22" s="3">
-        <v>121.447777778</v>
+        <v>118.549714286</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>29</v>
@@ -2451,37 +2520,37 @@
         <v>29</v>
       </c>
       <c r="N22" s="3">
-        <v>2.7777777777777777</v>
+        <v>2.6285714285714286</v>
       </c>
       <c r="O22" s="3">
-        <v>2.7777777777777777</v>
+        <v>2.6285714285714286</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q22" s="5">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="R22" s="5">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="S22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T22" s="3">
-        <v>43.7212</v>
+        <v>45.100434783</v>
       </c>
       <c r="U22" s="3">
-        <v>43.7212</v>
+        <v>45.100434783</v>
       </c>
       <c r="V22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W22" s="5">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="X22" s="5">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="Y22" s="4" t="s">
         <v>29</v>
@@ -2489,13 +2558,13 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>4590</v>
+        <v>12808</v>
       </c>
       <c r="B23" s="3">
-        <v>5608.34</v>
+        <v>3850.95</v>
       </c>
       <c r="C23" s="3">
-        <v>5608.34</v>
+        <v>3850.95</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>29</v>
@@ -2510,10 +2579,10 @@
         <v>29</v>
       </c>
       <c r="H23" s="3">
-        <v>175.260625</v>
+        <v>202.681578947</v>
       </c>
       <c r="I23" s="3">
-        <v>175.260625</v>
+        <v>202.681578947</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>29</v>
@@ -2528,37 +2597,37 @@
         <v>29</v>
       </c>
       <c r="N23" s="3">
-        <v>2.9375</v>
+        <v>4.2105263157894735</v>
       </c>
       <c r="O23" s="3">
-        <v>2.9375</v>
+        <v>4.2105263157894735</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q23" s="5">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="R23" s="5">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="S23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T23" s="3">
-        <v>59.663191489</v>
+        <v>48.136875</v>
       </c>
       <c r="U23" s="3">
-        <v>59.663191489</v>
+        <v>48.136875</v>
       </c>
       <c r="V23" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W23" s="5">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="X23" s="5">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="Y23" s="4" t="s">
         <v>29</v>
@@ -2566,13 +2635,13 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>22595</v>
+        <v>13898</v>
       </c>
       <c r="B24" s="3">
-        <v>630.54</v>
+        <v>1224.12</v>
       </c>
       <c r="C24" s="3">
-        <v>630.54</v>
+        <v>1224.12</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>29</v>
@@ -2587,10 +2656,10 @@
         <v>29</v>
       </c>
       <c r="H24" s="3">
-        <v>126.108</v>
+        <v>111.283636364</v>
       </c>
       <c r="I24" s="3">
-        <v>126.108</v>
+        <v>111.283636364</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>29</v>
@@ -2605,37 +2674,37 @@
         <v>29</v>
       </c>
       <c r="N24" s="3">
-        <v>2.6</v>
+        <v>1.7272727272727273</v>
       </c>
       <c r="O24" s="3">
-        <v>2.6</v>
+        <v>1.7272727272727273</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="Q24" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="R24" s="5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="S24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T24" s="3">
-        <v>48.503076923</v>
+        <v>64.427368421</v>
       </c>
       <c r="U24" s="3">
-        <v>48.503076923</v>
+        <v>64.427368421</v>
       </c>
       <c r="V24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="W24" s="5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="X24" s="5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y24" s="4" t="s">
         <v>29</v>
@@ -2659,7 +2728,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K89"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
@@ -2713,98 +2782,98 @@
         <v>33</v>
       </c>
       <c r="C2" s="6">
-        <v>34423.68</v>
+        <v>62630.79</v>
       </c>
       <c r="D2" s="6">
         <v>0</v>
       </c>
       <c r="E2" s="6">
-        <v>150.321746725</v>
+        <v>152.75802439</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
       </c>
       <c r="G2" s="6">
-        <v>2.7161572052401746</v>
+        <v>2.7804878048780486</v>
       </c>
       <c r="H2" s="10">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="I2" s="10">
-        <v>229</v>
+        <v>410</v>
       </c>
       <c r="J2" s="6">
-        <v>55.343536977</v>
+        <v>54.939289474</v>
       </c>
       <c r="K2" s="10">
-        <v>622</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>4590</v>
+        <v>12816</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="3">
-        <v>636.68</v>
+        <v>700.2</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3">
-        <v>127.336</v>
+        <v>175.05</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
         <v>4</v>
       </c>
-      <c r="I3" s="9">
-        <v>5</v>
-      </c>
       <c r="J3" s="3">
-        <v>57.88</v>
+        <v>70.02</v>
       </c>
       <c r="K3" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>9009</v>
+        <v>20138</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="3">
-        <v>754.31</v>
+        <v>993.54</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>150.862</v>
+        <v>141.934285714</v>
       </c>
       <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>2.4</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="H4" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="3">
-        <v>62.859166667</v>
+        <v>82.795</v>
       </c>
       <c r="K4" s="9">
         <v>12</v>
@@ -2812,107 +2881,107 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4145</v>
+        <v>9009</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="3">
-        <v>671.86</v>
+        <v>522.57</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>167.965</v>
+        <v>104.514</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J5" s="3">
-        <v>47.99</v>
+        <v>74.652857143</v>
       </c>
       <c r="K5" s="9">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>13898</v>
+        <v>14502</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="3">
-        <v>300.55</v>
+        <v>61.88</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="3">
-        <v>75.1375</v>
+        <v>30.94</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="3">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H6" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" s="3">
-        <v>30.055</v>
+        <v>30.94</v>
       </c>
       <c r="K6" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>4145</v>
+        <v>911760</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="3">
-        <v>117.05</v>
+        <v>696.7</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>117.05</v>
+        <v>87.0875</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="3">
+        <v>1.875</v>
+      </c>
+      <c r="H7" s="9">
         <v>2</v>
       </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
       <c r="I7" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J7" s="3">
-        <v>58.525</v>
+        <v>46.446666667</v>
       </c>
       <c r="K7" s="9">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2923,229 +2992,229 @@
         <v>39</v>
       </c>
       <c r="C8" s="3">
-        <v>1673.06</v>
+        <v>1359.61</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>185.895555556</v>
+        <v>135.961</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>2.6666666666666665</v>
+        <v>2.6</v>
       </c>
       <c r="H8" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J8" s="3">
-        <v>69.710833333</v>
+        <v>52.292692308</v>
       </c>
       <c r="K8" s="9">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>9009</v>
+        <v>7448</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C9" s="3">
-        <v>525.51</v>
+        <v>154.89</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>131.3775</v>
+        <v>154.89</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="H9" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9" s="3">
-        <v>75.072857143</v>
+        <v>25.815</v>
       </c>
       <c r="K9" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7448</v>
+        <v>7164</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="3">
-        <v>9.54</v>
+        <v>1455.24</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>9.54</v>
+        <v>161.693333333</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H10" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J10" s="3">
-        <v>9.54</v>
+        <v>60.635</v>
       </c>
       <c r="K10" s="9">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>911760</v>
+        <v>19832</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="3">
-        <v>41.74</v>
+        <v>2662.62</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>41.74</v>
+        <v>177.508</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>2</v>
+        <v>2.933333333333333</v>
       </c>
       <c r="H11" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="9">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J11" s="3">
-        <v>20.87</v>
+        <v>60.514090909</v>
       </c>
       <c r="K11" s="9">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>7448</v>
+        <v>911760</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="3">
-        <v>407.77</v>
+        <v>1104.16</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>135.923333333</v>
+        <v>184.026666667</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>2</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="H12" s="9">
         <v>1</v>
       </c>
       <c r="I12" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J12" s="3">
-        <v>67.961666667</v>
+        <v>42.467692308</v>
       </c>
       <c r="K12" s="9">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>4590</v>
+        <v>9009</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="3">
-        <v>1893.57</v>
+        <v>102</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>210.396666667</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>3.3333333333333335</v>
+        <v>1</v>
       </c>
       <c r="H13" s="9">
         <v>1</v>
       </c>
       <c r="I13" s="9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3">
-        <v>63.119</v>
+        <v>51</v>
       </c>
       <c r="K13" s="9">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>4590</v>
+        <v>19832</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="3">
-        <v>317.57</v>
+        <v>351.14</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>317.57</v>
+        <v>351.14</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -3154,77 +3223,77 @@
         <v>1</v>
       </c>
       <c r="J14" s="3">
-        <v>31.757</v>
+        <v>58.523333333</v>
       </c>
       <c r="K14" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14586</v>
+        <v>7164</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="3">
-        <v>767.38</v>
+        <v>42.19</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>255.793333333</v>
+        <v>42.19</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" s="3">
-        <v>51.158666667</v>
+        <v>42.19</v>
       </c>
       <c r="K15" s="9">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>20138</v>
+        <v>7448</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="3">
-        <v>136</v>
+        <v>17.99</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="3">
-        <v>136</v>
+        <v>8.995</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" s="9">
         <v>0</v>
       </c>
       <c r="I16" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" s="3">
-        <v>34</v>
+        <v>4.4975</v>
       </c>
       <c r="K16" s="9">
         <v>4</v>
@@ -3232,177 +3301,177 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>20138</v>
+        <v>9009</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="3">
-        <v>140.7</v>
+        <v>1282.56</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>140.7</v>
+        <v>183.222857143</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="H17" s="9">
         <v>0</v>
       </c>
       <c r="I17" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J17" s="3">
-        <v>46.9</v>
+        <v>64.128</v>
       </c>
       <c r="K17" s="9">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>4146</v>
+        <v>7448</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="3">
-        <v>276.9</v>
+        <v>401.92</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>138.45</v>
+        <v>133.973333333</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9">
         <v>3</v>
       </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
-        <v>2</v>
-      </c>
       <c r="J18" s="3">
-        <v>46.15</v>
+        <v>50.24</v>
       </c>
       <c r="K18" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>14590</v>
+        <v>13898</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="3">
-        <v>89.9</v>
+        <v>666.72</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
       </c>
       <c r="E19" s="3">
-        <v>89.9</v>
+        <v>95.245714286</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="H19" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J19" s="3">
-        <v>89.9</v>
+        <v>51.286153846</v>
       </c>
       <c r="K19" s="9">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>12808</v>
+        <v>911760</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="3">
-        <v>398.96</v>
+        <v>487.98</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>398.96</v>
+        <v>69.711428571</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>8</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="H20" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J20" s="3">
-        <v>49.87</v>
+        <v>40.665</v>
       </c>
       <c r="K20" s="9">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>4146</v>
+        <v>6777</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3">
-        <v>602.62</v>
+        <v>138.42</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>150.655</v>
+        <v>138.42</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="H21" s="9">
         <v>0</v>
       </c>
       <c r="I21" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21" s="3">
-        <v>66.957777778</v>
+        <v>46.14</v>
       </c>
       <c r="K21" s="9">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3410,197 +3479,197 @@
         <v>6777</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="3">
-        <v>304.89</v>
+        <v>506.5</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>101.63</v>
+        <v>101.3</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>2.3333333333333335</v>
+        <v>2.4</v>
       </c>
       <c r="H22" s="9">
         <v>0</v>
       </c>
       <c r="I22" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J22" s="3">
-        <v>43.555714286</v>
+        <v>42.208333333</v>
       </c>
       <c r="K22" s="9">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>4145</v>
+        <v>6777</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3">
-        <v>1028.21</v>
+        <v>670.38</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>257.0525</v>
+        <v>223.46</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>3.5</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="H23" s="9">
         <v>0</v>
       </c>
       <c r="I23" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J23" s="3">
-        <v>73.443571429</v>
+        <v>67.038</v>
       </c>
       <c r="K23" s="9">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>6417</v>
+        <v>19832</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="3">
-        <v>422.43</v>
+        <v>242.15</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>105.6075</v>
+        <v>121.075</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="H24" s="9">
         <v>0</v>
       </c>
       <c r="I24" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J24" s="3">
-        <v>38.402727273</v>
+        <v>30.26875</v>
       </c>
       <c r="K24" s="9">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>14502</v>
+        <v>12550</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="3">
-        <v>327.93</v>
+        <v>795.1</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
       </c>
       <c r="E25" s="3">
-        <v>81.9825</v>
+        <v>198.775</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
       </c>
       <c r="G25" s="3">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H25" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="9">
         <v>4</v>
       </c>
       <c r="J25" s="3">
-        <v>25.225384615</v>
+        <v>56.792857143</v>
       </c>
       <c r="K25" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>4146</v>
+        <v>4591</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3">
-        <v>267.7</v>
+        <v>618.66</v>
       </c>
       <c r="D26" s="3">
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>267.7</v>
+        <v>154.665</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" s="3">
-        <v>89.233333333</v>
+        <v>56.241818182</v>
       </c>
       <c r="K26" s="9">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>12816</v>
+        <v>12808</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C27" s="3">
-        <v>63.64</v>
+        <v>331.91</v>
       </c>
       <c r="D27" s="3">
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>63.64</v>
+        <v>331.91</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H27" s="9">
         <v>0</v>
@@ -3609,243 +3678,243 @@
         <v>1</v>
       </c>
       <c r="J27" s="3">
-        <v>31.82</v>
+        <v>41.48875</v>
       </c>
       <c r="K27" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>4591</v>
+        <v>12816</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="3">
-        <v>618.66</v>
+        <v>462.45</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
       </c>
       <c r="E28" s="3">
-        <v>154.665</v>
+        <v>154.15</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28" s="3">
-        <v>2.75</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="H28" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="9">
+        <v>3</v>
+      </c>
+      <c r="J28" s="3">
+        <v>115.6125</v>
+      </c>
+      <c r="K28" s="9">
         <v>4</v>
-      </c>
-      <c r="J28" s="3">
-        <v>56.241818182</v>
-      </c>
-      <c r="K28" s="9">
-        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>7164</v>
+        <v>13898</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" s="3">
-        <v>1281.92</v>
+        <v>463.6</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>160.24</v>
+        <v>231.8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>2.625</v>
+        <v>2</v>
       </c>
       <c r="H29" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J29" s="3">
-        <v>61.043809524</v>
+        <v>115.9</v>
       </c>
       <c r="K29" s="9">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>14586</v>
+        <v>4590</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" s="3">
-        <v>955.93</v>
+        <v>3495.27</v>
       </c>
       <c r="D30" s="3">
         <v>0</v>
       </c>
       <c r="E30" s="3">
-        <v>119.49125</v>
+        <v>218.454375</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="H30" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J30" s="3">
-        <v>41.562173913</v>
+        <v>67.216730769</v>
       </c>
       <c r="K30" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>22595</v>
+        <v>12808</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="3">
-        <v>630.54</v>
+        <v>398.96</v>
       </c>
       <c r="D31" s="3">
         <v>0</v>
       </c>
       <c r="E31" s="3">
-        <v>157.635</v>
+        <v>398.96</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H31" s="9">
         <v>0</v>
       </c>
       <c r="I31" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J31" s="3">
-        <v>52.545</v>
+        <v>49.87</v>
       </c>
       <c r="K31" s="9">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>14586</v>
+        <v>7448</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" s="3">
-        <v>369.99</v>
+        <v>343.62</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>73.998</v>
+        <v>85.905</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H32" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" s="3">
-        <v>46.24875</v>
+        <v>85.905</v>
       </c>
       <c r="K32" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>6777</v>
+        <v>4590</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="3">
-        <v>300.51</v>
+        <v>621.71</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>100.17</v>
+        <v>207.236666667</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>2.6666666666666665</v>
+        <v>3</v>
       </c>
       <c r="H33" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="9">
         <v>3</v>
       </c>
       <c r="J33" s="3">
-        <v>37.56375</v>
+        <v>69.078888889</v>
       </c>
       <c r="K33" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>7448</v>
+        <v>14586</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C34" s="3">
-        <v>154.89</v>
+        <v>254</v>
       </c>
       <c r="D34" s="3">
         <v>0</v>
       </c>
       <c r="E34" s="3">
-        <v>154.89</v>
+        <v>254</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
       <c r="G34" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H34" s="9">
         <v>0</v>
@@ -3854,115 +3923,115 @@
         <v>1</v>
       </c>
       <c r="J34" s="3">
-        <v>25.815</v>
+        <v>127</v>
       </c>
       <c r="K34" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>12816</v>
+        <v>9009</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35" s="3">
-        <v>403.62</v>
+        <v>88.3</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>201.81</v>
+        <v>88.3</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9">
         <v>1</v>
       </c>
-      <c r="I35" s="9">
+      <c r="J35" s="3">
+        <v>44.15</v>
+      </c>
+      <c r="K35" s="9">
         <v>2</v>
-      </c>
-      <c r="J35" s="3">
-        <v>80.724</v>
-      </c>
-      <c r="K35" s="9">
-        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>4145</v>
+        <v>7448</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C36" s="3">
-        <v>788.03</v>
+        <v>487.09</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <v>197.0075</v>
+        <v>121.7725</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" s="9">
         <v>4</v>
       </c>
       <c r="J36" s="3">
-        <v>65.669166667</v>
+        <v>60.88625</v>
       </c>
       <c r="K36" s="9">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>4591</v>
+        <v>19832</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C37" s="3">
-        <v>910.61</v>
+        <v>2285.8</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
       </c>
       <c r="E37" s="3">
-        <v>182.122</v>
+        <v>190.483333333</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <v>3.4</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="H37" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37" s="9">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J37" s="3">
-        <v>53.565294118</v>
+        <v>60.152631579</v>
       </c>
       <c r="K37" s="9">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3970,7 +4039,7 @@
         <v>12808</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C38" s="3">
         <v>864.83</v>
@@ -4002,19 +4071,19 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>7448</v>
+        <v>22595</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="C39" s="3">
-        <v>343.62</v>
+        <v>40.72</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>85.905</v>
+        <v>20.36</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -4023,188 +4092,188 @@
         <v>1</v>
       </c>
       <c r="H39" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J39" s="3">
-        <v>85.905</v>
+        <v>20.36</v>
       </c>
       <c r="K39" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>14586</v>
+        <v>6777</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C40" s="3">
-        <v>619.96</v>
+        <v>744.95</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
       </c>
       <c r="E40" s="3">
-        <v>88.565714286</v>
+        <v>124.158333333</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
       <c r="G40" s="3">
-        <v>2.4285714285714284</v>
+        <v>4</v>
       </c>
       <c r="H40" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J40" s="3">
-        <v>36.468235294</v>
+        <v>31.039583333</v>
       </c>
       <c r="K40" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>14590</v>
+        <v>9009</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C41" s="3">
-        <v>980.23</v>
+        <v>1002.64</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>140.032857143</v>
+        <v>143.234285714</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>3.142857142857143</v>
+        <v>2</v>
       </c>
       <c r="H41" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" s="9">
         <v>7</v>
       </c>
       <c r="J41" s="3">
-        <v>44.555909091</v>
+        <v>71.617142857</v>
       </c>
       <c r="K41" s="9">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7448</v>
+        <v>14586</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C42" s="3">
-        <v>22.09</v>
+        <v>731.11</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>22.09</v>
+        <v>81.234444444</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>1</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="H42" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" s="9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J42" s="3">
-        <v>22.09</v>
+        <v>34.814761905</v>
       </c>
       <c r="K42" s="9">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>12808</v>
+        <v>14590</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C43" s="3">
-        <v>808.82</v>
+        <v>227.22</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>134.803333333</v>
+        <v>113.61</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>2.3333333333333335</v>
+        <v>2</v>
       </c>
       <c r="H43" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43" s="9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J43" s="3">
-        <v>57.772857143</v>
+        <v>56.805</v>
       </c>
       <c r="K43" s="9">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>20138</v>
+        <v>9009</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C44" s="3">
-        <v>601.35</v>
+        <v>442.13</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>150.3375</v>
+        <v>147.376666667</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>1.75</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="H44" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J44" s="3">
-        <v>85.907142857</v>
+        <v>63.161428571</v>
       </c>
       <c r="K44" s="9">
         <v>7</v>
@@ -4212,235 +4281,235 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>12816</v>
+        <v>12808</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C45" s="3">
-        <v>189.9</v>
+        <v>308.24</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>189.9</v>
+        <v>102.746666667</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>1</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H45" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" s="3">
-        <v>189.9</v>
+        <v>38.53</v>
       </c>
       <c r="K45" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>14590</v>
+        <v>7164</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C46" s="3">
-        <v>22.9</v>
+        <v>396.53</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>22.9</v>
+        <v>132.176666667</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>2</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="H46" s="9">
         <v>0</v>
       </c>
       <c r="I46" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J46" s="3">
-        <v>11.45</v>
+        <v>36.048181818</v>
       </c>
       <c r="K46" s="9">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>12808</v>
+        <v>6417</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C47" s="3">
-        <v>212.92</v>
+        <v>602.73</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>106.46</v>
+        <v>120.546</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H47" s="9">
         <v>0</v>
       </c>
       <c r="I47" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J47" s="3">
-        <v>35.486666667</v>
+        <v>46.363846154</v>
       </c>
       <c r="K47" s="9">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>7448</v>
+        <v>12816</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C48" s="3">
-        <v>255.03</v>
+        <v>545.74</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>127.515</v>
+        <v>181.913333333</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="3">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0</v>
+      </c>
+      <c r="I48" s="9">
         <v>3</v>
       </c>
-      <c r="H48" s="9">
-        <v>1</v>
-      </c>
-      <c r="I48" s="9">
-        <v>2</v>
-      </c>
       <c r="J48" s="3">
-        <v>42.505</v>
+        <v>41.98</v>
       </c>
       <c r="K48" s="9">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>4590</v>
+        <v>4145</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C49" s="3">
-        <v>1087.46</v>
+        <v>1313.77</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>135.9325</v>
+        <v>187.681428571</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>2.375</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="H49" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J49" s="3">
-        <v>57.234736842</v>
+        <v>65.6885</v>
       </c>
       <c r="K49" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>6417</v>
+        <v>19832</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C50" s="3">
-        <v>247.11</v>
+        <v>121.8</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
       </c>
       <c r="E50" s="3">
-        <v>82.37</v>
+        <v>121.8</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
       </c>
       <c r="G50" s="3">
-        <v>1.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="H50" s="9">
         <v>0</v>
       </c>
       <c r="I50" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" s="3">
-        <v>61.7775</v>
+        <v>60.9</v>
       </c>
       <c r="K50" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>12550</v>
+        <v>4146</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C51" s="3">
-        <v>795.1</v>
+        <v>602.62</v>
       </c>
       <c r="D51" s="3">
         <v>0</v>
       </c>
       <c r="E51" s="3">
-        <v>198.775</v>
+        <v>150.655</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
       </c>
       <c r="G51" s="3">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="H51" s="9">
         <v>0</v>
@@ -4449,243 +4518,243 @@
         <v>4</v>
       </c>
       <c r="J51" s="3">
-        <v>56.792857143</v>
+        <v>66.957777778</v>
       </c>
       <c r="K51" s="9">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>12550</v>
+        <v>14590</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C52" s="3">
-        <v>357.25</v>
+        <v>1194.62</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>119.083333333</v>
+        <v>132.735555556</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>3</v>
+        <v>3.2222222222222223</v>
       </c>
       <c r="H52" s="9">
         <v>1</v>
       </c>
       <c r="I52" s="9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J52" s="3">
-        <v>39.694444444</v>
+        <v>41.193793103</v>
       </c>
       <c r="K52" s="9">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>911760</v>
+        <v>18464</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C53" s="3">
-        <v>343.06</v>
+        <v>366.07</v>
       </c>
       <c r="D53" s="3">
         <v>0</v>
       </c>
       <c r="E53" s="3">
-        <v>68.612</v>
+        <v>122.023333333</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
       </c>
       <c r="G53" s="3">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H53" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" s="9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J53" s="3">
-        <v>49.008571429</v>
+        <v>40.674444444</v>
       </c>
       <c r="K53" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>19832</v>
+        <v>12808</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C54" s="3">
-        <v>664.31</v>
+        <v>498.41</v>
       </c>
       <c r="D54" s="3">
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>110.718333333</v>
+        <v>166.136666667</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>2.1666666666666665</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H54" s="9">
+        <v>0</v>
+      </c>
+      <c r="I54" s="9">
         <v>3</v>
       </c>
-      <c r="I54" s="9">
-        <v>6</v>
-      </c>
       <c r="J54" s="3">
-        <v>51.100769231</v>
+        <v>62.30125</v>
       </c>
       <c r="K54" s="9">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>19832</v>
+        <v>14502</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C55" s="3">
-        <v>1369.4</v>
+        <v>81.8</v>
       </c>
       <c r="D55" s="3">
         <v>0</v>
       </c>
       <c r="E55" s="3">
-        <v>228.233333333</v>
+        <v>81.8</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
       </c>
       <c r="G55" s="3">
-        <v>2.8333333333333335</v>
+        <v>2</v>
       </c>
       <c r="H55" s="9">
+        <v>0</v>
+      </c>
+      <c r="I55" s="9">
         <v>1</v>
       </c>
-      <c r="I55" s="9">
-        <v>6</v>
-      </c>
       <c r="J55" s="3">
-        <v>80.552941176</v>
+        <v>40.9</v>
       </c>
       <c r="K55" s="9">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>7164</v>
+        <v>4591</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C56" s="3">
-        <v>334.68</v>
+        <v>1521.95</v>
       </c>
       <c r="D56" s="3">
         <v>0</v>
       </c>
       <c r="E56" s="3">
-        <v>167.34</v>
+        <v>190.24375</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>6.5</v>
+        <v>3.625</v>
       </c>
       <c r="H56" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" s="9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J56" s="3">
-        <v>25.744615385</v>
+        <v>52.481034483</v>
       </c>
       <c r="K56" s="9">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>18464</v>
+        <v>4590</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C57" s="3">
-        <v>1995.2</v>
+        <v>1422.28</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
       <c r="E57" s="3">
-        <v>199.52</v>
+        <v>142.228</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H57" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I57" s="9">
         <v>10</v>
       </c>
       <c r="J57" s="3">
-        <v>79.808</v>
+        <v>52.677037037</v>
       </c>
       <c r="K57" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>12808</v>
+        <v>4591</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C58" s="3">
-        <v>399.37</v>
+        <v>185.65</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>199.685</v>
+        <v>92.825</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H58" s="9">
         <v>0</v>
@@ -4694,80 +4763,80 @@
         <v>2</v>
       </c>
       <c r="J58" s="3">
-        <v>66.561666667</v>
+        <v>37.13</v>
       </c>
       <c r="K58" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>6777</v>
+        <v>9009</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C59" s="3">
-        <v>670.38</v>
+        <v>2101.52</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>223.46</v>
+        <v>262.69</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>3.3333333333333335</v>
+        <v>3.125</v>
       </c>
       <c r="H59" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J59" s="3">
-        <v>67.038</v>
+        <v>84.0608</v>
       </c>
       <c r="K59" s="9">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>14586</v>
+        <v>12808</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C60" s="3">
-        <v>460.66</v>
+        <v>1448.6</v>
       </c>
       <c r="D60" s="3">
         <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>115.165</v>
+        <v>160.955555556</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>2.75</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="H60" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J60" s="3">
-        <v>41.878181818</v>
+        <v>41.388571429</v>
       </c>
       <c r="K60" s="9">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4775,139 +4844,1014 @@
         <v>4146</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C61" s="3">
-        <v>1109.69</v>
+        <v>1184.22</v>
       </c>
       <c r="D61" s="3">
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>138.71125</v>
+        <v>296.055</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>2.375</v>
+        <v>4.25</v>
       </c>
       <c r="H61" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J61" s="3">
-        <v>58.404736842</v>
+        <v>69.66</v>
       </c>
       <c r="K61" s="9">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>9009</v>
+        <v>14586</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C62" s="3">
-        <v>874.75</v>
+        <v>552.64</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>218.6875</v>
+        <v>78.948571429</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>2.5</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="H62" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I62" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J62" s="3">
-        <v>87.475</v>
+        <v>46.053333333</v>
       </c>
       <c r="K62" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>14502</v>
+        <v>14586</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C63" s="3">
-        <v>202.44</v>
+        <v>1143.58</v>
       </c>
       <c r="D63" s="3">
         <v>0</v>
       </c>
       <c r="E63" s="3">
-        <v>101.22</v>
+        <v>127.064444444</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
       </c>
       <c r="G63" s="3">
-        <v>1.5</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="H63" s="9">
         <v>0</v>
       </c>
       <c r="I63" s="9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J63" s="3">
-        <v>67.48</v>
+        <v>45.7432</v>
       </c>
       <c r="K63" s="9">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
+        <v>14586</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="3">
+        <v>840.19</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>210.0475</v>
+      </c>
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="H64" s="9">
+        <v>0</v>
+      </c>
+      <c r="I64" s="9">
+        <v>4</v>
+      </c>
+      <c r="J64" s="3">
+        <v>46.677222222</v>
+      </c>
+      <c r="K64" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>14502</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="3">
+        <v>471.75</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>78.625</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H65" s="9">
+        <v>3</v>
+      </c>
+      <c r="I65" s="9">
+        <v>6</v>
+      </c>
+      <c r="J65" s="3">
+        <v>31.45</v>
+      </c>
+      <c r="K65" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>14586</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="3">
+        <v>460.66</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>115.165</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="H66" s="9">
+        <v>2</v>
+      </c>
+      <c r="I66" s="9">
+        <v>4</v>
+      </c>
+      <c r="J66" s="3">
+        <v>41.878181818</v>
+      </c>
+      <c r="K66" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>14586</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="3">
+        <v>167.06</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>167.06</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>3</v>
+      </c>
+      <c r="H67" s="9">
+        <v>0</v>
+      </c>
+      <c r="I67" s="9">
+        <v>1</v>
+      </c>
+      <c r="J67" s="3">
+        <v>55.686666667</v>
+      </c>
+      <c r="K67" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>13898</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="3">
+        <v>93.8</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>46.9</v>
+      </c>
+      <c r="F68" s="3">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1</v>
+      </c>
+      <c r="H68" s="9">
+        <v>2</v>
+      </c>
+      <c r="I68" s="9">
+        <v>2</v>
+      </c>
+      <c r="J68" s="3">
+        <v>46.9</v>
+      </c>
+      <c r="K68" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>22595</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C64" s="3">
-        <v>0</v>
-      </c>
-      <c r="D64" s="3">
-        <v>0</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3">
+      <c r="B69" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="3">
+        <v>121.6</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>121.6</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>4</v>
+      </c>
+      <c r="H69" s="9">
+        <v>0</v>
+      </c>
+      <c r="I69" s="9">
         <v>1</v>
       </c>
-      <c r="H64" s="9">
+      <c r="J69" s="3">
+        <v>30.4</v>
+      </c>
+      <c r="K69" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>4145</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="3">
+        <v>430.86</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>143.62</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H70" s="9">
+        <v>0</v>
+      </c>
+      <c r="I70" s="9">
+        <v>3</v>
+      </c>
+      <c r="J70" s="3">
+        <v>53.8575</v>
+      </c>
+      <c r="K70" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>4145</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="3">
+        <v>1291.97</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>143.552222222</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="H71" s="9">
+        <v>3</v>
+      </c>
+      <c r="I71" s="9">
+        <v>9</v>
+      </c>
+      <c r="J71" s="3">
+        <v>58.725909091</v>
+      </c>
+      <c r="K71" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>6417</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" s="3">
+        <v>110.99</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>110.99</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>2</v>
+      </c>
+      <c r="H72" s="9">
+        <v>0</v>
+      </c>
+      <c r="I72" s="9">
         <v>1</v>
       </c>
-      <c r="I64" s="9">
+      <c r="J72" s="3">
+        <v>55.495</v>
+      </c>
+      <c r="K72" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>4590</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" s="3">
+        <v>2139.2</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0</v>
+      </c>
+      <c r="E73" s="3">
+        <v>178.266666667</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H73" s="9">
+        <v>2</v>
+      </c>
+      <c r="I73" s="9">
+        <v>12</v>
+      </c>
+      <c r="J73" s="3">
+        <v>66.85</v>
+      </c>
+      <c r="K73" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>14502</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="3">
+        <v>441.74</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3">
+        <v>110.435</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="H74" s="9">
+        <v>2</v>
+      </c>
+      <c r="I74" s="9">
+        <v>4</v>
+      </c>
+      <c r="J74" s="3">
+        <v>88.348</v>
+      </c>
+      <c r="K74" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>14590</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="3">
+        <v>1381.5</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <v>345.375</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>4</v>
+      </c>
+      <c r="H75" s="9">
+        <v>0</v>
+      </c>
+      <c r="I75" s="9">
+        <v>4</v>
+      </c>
+      <c r="J75" s="3">
+        <v>86.34375</v>
+      </c>
+      <c r="K75" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>4590</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="3">
+        <v>317.57</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>317.57</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>10</v>
+      </c>
+      <c r="H76" s="9">
+        <v>0</v>
+      </c>
+      <c r="I76" s="9">
         <v>1</v>
       </c>
-      <c r="J64" s="3">
-        <v>0</v>
-      </c>
-      <c r="K64" s="9">
+      <c r="J76" s="3">
+        <v>31.757</v>
+      </c>
+      <c r="K76" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>20138</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" s="3">
+        <v>140.7</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>140.7</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3">
+        <v>3</v>
+      </c>
+      <c r="H77" s="9">
+        <v>0</v>
+      </c>
+      <c r="I77" s="9">
         <v>1</v>
+      </c>
+      <c r="J77" s="3">
+        <v>46.9</v>
+      </c>
+      <c r="K77" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>4145</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="3">
+        <v>815.7</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>135.95</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+      <c r="G78" s="3">
+        <v>3</v>
+      </c>
+      <c r="H78" s="9">
+        <v>1</v>
+      </c>
+      <c r="I78" s="9">
+        <v>6</v>
+      </c>
+      <c r="J78" s="3">
+        <v>45.316666667</v>
+      </c>
+      <c r="K78" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>6417</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" s="3">
+        <v>335.99</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0</v>
+      </c>
+      <c r="E79" s="3">
+        <v>167.995</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0</v>
+      </c>
+      <c r="G79" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="H79" s="9">
+        <v>1</v>
+      </c>
+      <c r="I79" s="9">
+        <v>2</v>
+      </c>
+      <c r="J79" s="3">
+        <v>111.996666667</v>
+      </c>
+      <c r="K79" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>18464</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="3">
+        <v>2105.79</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>175.4825</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3">
+        <v>2.4166666666666665</v>
+      </c>
+      <c r="H80" s="9">
+        <v>5</v>
+      </c>
+      <c r="I80" s="9">
+        <v>12</v>
+      </c>
+      <c r="J80" s="3">
+        <v>72.613448276</v>
+      </c>
+      <c r="K80" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>12550</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" s="3">
+        <v>1146.3</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>229.26</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="H81" s="9">
+        <v>1</v>
+      </c>
+      <c r="I81" s="9">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
+        <v>63.683333333</v>
+      </c>
+      <c r="K81" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>19832</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="3">
+        <v>55.09</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3">
+        <v>55.09</v>
+      </c>
+      <c r="F82" s="3">
+        <v>0</v>
+      </c>
+      <c r="G82" s="3">
+        <v>2</v>
+      </c>
+      <c r="H82" s="9">
+        <v>0</v>
+      </c>
+      <c r="I82" s="9">
+        <v>1</v>
+      </c>
+      <c r="J82" s="3">
+        <v>27.545</v>
+      </c>
+      <c r="K82" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>22595</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="3">
+        <v>846.22</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>141.036666667</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H83" s="9">
+        <v>1</v>
+      </c>
+      <c r="I83" s="9">
+        <v>6</v>
+      </c>
+      <c r="J83" s="3">
+        <v>52.88875</v>
+      </c>
+      <c r="K83" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>6417</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" s="3">
+        <v>782.8</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0</v>
+      </c>
+      <c r="E84" s="3">
+        <v>97.85</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0</v>
+      </c>
+      <c r="G84" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="H84" s="9">
+        <v>3</v>
+      </c>
+      <c r="I84" s="9">
+        <v>8</v>
+      </c>
+      <c r="J84" s="3">
+        <v>65.233333333</v>
+      </c>
+      <c r="K84" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>4146</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" s="3">
+        <v>436.7</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3">
+        <v>109.175</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="H85" s="9">
+        <v>1</v>
+      </c>
+      <c r="I85" s="9">
+        <v>4</v>
+      </c>
+      <c r="J85" s="3">
+        <v>48.522222222</v>
+      </c>
+      <c r="K85" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>7164</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" s="3">
+        <v>448.58</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3">
+        <v>112.145</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>4</v>
+      </c>
+      <c r="H86" s="9">
+        <v>0</v>
+      </c>
+      <c r="I86" s="9">
+        <v>4</v>
+      </c>
+      <c r="J86" s="3">
+        <v>28.03625</v>
+      </c>
+      <c r="K86" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>20138</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" s="3">
+        <v>494.19</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3">
+        <v>247.095</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="H87" s="9">
+        <v>0</v>
+      </c>
+      <c r="I87" s="9">
+        <v>2</v>
+      </c>
+      <c r="J87" s="3">
+        <v>32.946</v>
+      </c>
+      <c r="K87" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>4146</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1339.59</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>148.843333333</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0</v>
+      </c>
+      <c r="G88" s="3">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="H88" s="9">
+        <v>2</v>
+      </c>
+      <c r="I88" s="9">
+        <v>9</v>
+      </c>
+      <c r="J88" s="3">
+        <v>66.9795</v>
+      </c>
+      <c r="K88" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>7448</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" s="3">
+        <v>500.05</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>125.0125</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>3</v>
+      </c>
+      <c r="H89" s="9">
+        <v>1</v>
+      </c>
+      <c r="I89" s="9">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3">
+        <v>41.670833333</v>
+      </c>
+      <c r="K89" s="9">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -5199,13 +6143,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE651B69-4F5C-471A-819A-C8DDD4735F2A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7200FF1-5344-4CAC-A9A2-A7D24B9FBC90}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D02447D2-A9C0-4C98-8A6B-2766474FAD96}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E378C2B-3384-4078-BAEB-FC7A19773E00}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{393567D2-586A-45F2-8A8A-F568229ECBF4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A765A4-0780-4427-ADAB-A827047B11A6}"/>
 </file>